--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>994765.574398535</v>
+        <v>992205.3902386702</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>64.78951849539307</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>20.75054951475536</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>148.1776514406537</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>103.0519590718568</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>267.7170310703594</v>
+        <v>223.3922079480024</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,10 +1060,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>78.86261552750678</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>162.8488061766259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>157.2327195276069</v>
+        <v>114.5059581839116</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>117.4848479386221</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>76.89801764146411</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7834165521162</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>28.11749662300596</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203237973</v>
+        <v>22.60777203238018</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114068</v>
+        <v>97.97552699114097</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458117</v>
+        <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794034968</v>
+        <v>9.753166794035181</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468618</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>54.49322057420931</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>136.6856111842627</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146334</v>
       </c>
       <c r="S13" t="n">
-        <v>185.922657007676</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337144</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
-        <v>148.905530700185</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119161</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>36.53032011471323</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>123.9815576456775</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699816</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>19.91555826189108</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881304</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
-        <v>104.8913819999789</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695437</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.800047274035</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>19.91555826189108</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428172</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="33">
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.3264904208969</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699788</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.3264904208969</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,10 +3430,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983401</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576006</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833379</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>7.155999212075876</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763399</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>20.9284728855229</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>70.5897499147861</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1154.923604942953</v>
+        <v>859.685290191162</v>
       </c>
       <c r="C2" t="n">
-        <v>785.9610880025414</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D2" t="n">
-        <v>427.6953893957909</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>427.6953893957909</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>420.7498886465874</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.831592188879</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918765</v>
+        <v>1623.290380428054</v>
       </c>
       <c r="X2" t="n">
-        <v>1545.062936918765</v>
+        <v>1249.824622166974</v>
       </c>
       <c r="Y2" t="n">
-        <v>1154.923604942953</v>
+        <v>859.685290191162</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>790.7764984014359</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>476.1547555788524</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C4" t="n">
-        <v>307.2185726509455</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.34930177307</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671834</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>580.2476435302228</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X4" t="n">
-        <v>580.2476435302228</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="Y4" t="n">
-        <v>476.1547555788524</v>
+        <v>349.6600800990966</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1118.442187461269</v>
+        <v>1112.520734025445</v>
       </c>
       <c r="C5" t="n">
-        <v>1118.442187461269</v>
+        <v>1112.520734025445</v>
       </c>
       <c r="D5" t="n">
-        <v>1118.442187461269</v>
+        <v>754.2550354186944</v>
       </c>
       <c r="E5" t="n">
-        <v>732.6539348630242</v>
+        <v>754.2550354186944</v>
       </c>
       <c r="F5" t="n">
-        <v>321.6680300734167</v>
+        <v>343.2691306290869</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.04202752539</v>
+        <v>1502.660066001257</v>
       </c>
       <c r="Y5" t="n">
-        <v>1505.04202752539</v>
+        <v>1112.520734025445</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4641,22 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1034.596277341134</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.344461831649</v>
+        <v>745.1791073041734</v>
       </c>
       <c r="X7" t="n">
-        <v>864.354910933632</v>
+        <v>517.189556406156</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>517.189556406156</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1926.050536840746</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="C8" t="n">
-        <v>1926.050536840746</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>1567.784838233996</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926625</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656511</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X8" t="n">
-        <v>2084.871465656511</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="Y8" t="n">
-        <v>2084.871465656511</v>
+        <v>1768.949738926589</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4872,13 +4872,13 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
@@ -4893,13 +4893,13 @@
         <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1807.87508285327</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>2139.945518029432</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2387.128251861729</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4920,7 +4920,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>466.924937052615</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C10" t="n">
-        <v>466.924937052615</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>316.8082976402792</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>316.8082976402792</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>169.9183501423688</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269232</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1413.467639269232</v>
+        <v>1139.164126134685</v>
       </c>
       <c r="V10" t="n">
-        <v>1158.783151063345</v>
+        <v>884.4796379287984</v>
       </c>
       <c r="W10" t="n">
-        <v>869.3659810263848</v>
+        <v>595.0624678918377</v>
       </c>
       <c r="X10" t="n">
-        <v>869.3659810263848</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="Y10" t="n">
-        <v>648.5734018828547</v>
+        <v>367.0729169938204</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1992.551659540981</v>
+        <v>1535.258832689354</v>
       </c>
       <c r="C11" t="n">
-        <v>1623.589142600569</v>
+        <v>1166.296315748942</v>
       </c>
       <c r="D11" t="n">
-        <v>1312.696802648937</v>
+        <v>808.0306171421921</v>
       </c>
       <c r="E11" t="n">
-        <v>926.9085500506928</v>
+        <v>422.242364543948</v>
       </c>
       <c r="F11" t="n">
-        <v>515.9226452610853</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="G11" t="n">
-        <v>101.3471995907323</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907323</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.5110662246922</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386847</v>
+        <v>308.7333971386843</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420364</v>
+        <v>704.5155104420332</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301231</v>
+        <v>1232.419981301227</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878119</v>
+        <v>1851.484858878112</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765437</v>
+        <v>2485.180661765428</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687115</v>
+        <v>3070.226377687105</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856299</v>
+        <v>3535.048359856286</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882258</v>
+        <v>3835.937563882245</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.55331123461</v>
+        <v>3925.553311234595</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455679</v>
+        <v>3826.588132455664</v>
       </c>
       <c r="T11" t="n">
-        <v>3826.588132455679</v>
+        <v>3622.786021971444</v>
       </c>
       <c r="U11" t="n">
-        <v>3826.588132455679</v>
+        <v>3369.295305604052</v>
       </c>
       <c r="V11" t="n">
-        <v>3495.525245112109</v>
+        <v>3038.232418260482</v>
       </c>
       <c r="W11" t="n">
-        <v>3142.756589841994</v>
+        <v>2685.463762990367</v>
       </c>
       <c r="X11" t="n">
-        <v>2769.290831580915</v>
+        <v>2311.998004729287</v>
       </c>
       <c r="Y11" t="n">
-        <v>2379.151499605103</v>
+        <v>1921.858672753476</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503056</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246922</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="J12" t="n">
-        <v>196.812062379214</v>
+        <v>196.812062379213</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376527</v>
+        <v>477.1621322376507</v>
       </c>
       <c r="L12" t="n">
-        <v>480.117108684381</v>
+        <v>900.4499396649607</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282725</v>
+        <v>1337.658805224961</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279341</v>
+        <v>1878.967112576028</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145092</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985248</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>283.671362782694</v>
+        <v>385.5135230760962</v>
       </c>
       <c r="C13" t="n">
-        <v>228.6277056370279</v>
+        <v>216.5773401481894</v>
       </c>
       <c r="D13" t="n">
-        <v>78.5110662246922</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="E13" t="n">
-        <v>78.5110662246922</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="F13" t="n">
-        <v>78.5110662246922</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="G13" t="n">
-        <v>78.5110662246922</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="H13" t="n">
-        <v>78.5110662246922</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246922</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="J13" t="n">
-        <v>139.081833460041</v>
+        <v>139.0818334600402</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457721</v>
+        <v>368.4550473457707</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888942</v>
+        <v>717.5002252888921</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779224</v>
+        <v>1095.908548779222</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542998</v>
+        <v>1470.753784542994</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715854</v>
+        <v>1800.96773471585</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082528</v>
+        <v>2060.002133082522</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551112</v>
+        <v>2155.909043551106</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551112</v>
+        <v>2076.102739014274</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906994</v>
+        <v>1888.302075370157</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.29432245704</v>
+        <v>1667.488017920203</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897329</v>
+        <v>1378.397311360491</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691442</v>
+        <v>1123.712823154604</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544811</v>
+        <v>834.2956531176437</v>
       </c>
       <c r="X13" t="n">
-        <v>686.1124067564638</v>
+        <v>606.3061022196264</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.3198276129336</v>
+        <v>385.5135230760962</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,7 +5261,7 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
@@ -5270,58 +5270,58 @@
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251937</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>106.3138404733493</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>106.3138404733493</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385037</v>
+        <v>106.3138404733493</v>
       </c>
       <c r="M15" t="n">
-        <v>1653.719034637164</v>
+        <v>698.3321947254768</v>
       </c>
       <c r="N15" t="n">
-        <v>2133.192111344164</v>
+        <v>1320.428158124813</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>743.5667998938119</v>
+        <v>494.0589900220724</v>
       </c>
       <c r="C16" t="n">
-        <v>574.630616965905</v>
+        <v>325.1228070941654</v>
       </c>
       <c r="D16" t="n">
-        <v>424.5139775535692</v>
+        <v>175.0061676818295</v>
       </c>
       <c r="E16" t="n">
-        <v>276.600883971176</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="F16" t="n">
-        <v>129.7109364732656</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="G16" t="n">
-        <v>129.7109364732656</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>129.7109364732656</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861984</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693326</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178207</v>
+        <v>1668.591243136707</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.76609997232</v>
+        <v>1413.90675493082</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.348929935359</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>964.359379037342</v>
+        <v>896.5000339958422</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.5667998938119</v>
+        <v>675.707454852312</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400708</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
         <v>93.81666304797187</v>
@@ -5674,19 +5674,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597622</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474265</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>113.9333885650335</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
         <v>93.81666304797187</v>
@@ -5908,13 +5908,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,7 +5923,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.55866301478</v>
@@ -6002,37 +6002,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400719</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400719</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6157,40 +6157,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138418</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703116</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876695</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597626</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474267</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>113.9333885650337</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614394</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179092</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6449,37 +6449,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121639</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,7 +6634,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,13 +6643,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
         <v>1688.385853854706</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.6725264685181</v>
+        <v>513.8536007400687</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406112</v>
+        <v>344.9174178121618</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282754</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570815</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138386</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703084</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6926,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6950,10 +6950,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.6725264685181</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406112</v>
+        <v>344.9174178121663</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282754</v>
+        <v>194.8007783998306</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
         <v>93.81666304797187</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797736</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910808</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="38">
@@ -7163,61 +7163,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797156</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192525</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111696</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075774</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332382</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014771</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355927</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291067997</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694693</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.26572885224</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398578</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492562</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7227,58 +7227,58 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778464</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967194</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354681</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300126</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568976</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028054</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797156</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797156</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797156</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797156</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797156</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745216</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229127</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468412</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.32599396348</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338361</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
         <v>2244.643795685161</v>
@@ -7296,7 +7296,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6605733532806</v>
+        <v>513.8536007400669</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7243904253738</v>
+        <v>344.91741781216</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253738</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429807</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429807</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797156</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.052681478295</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797724</v>
+        <v>826.1405381797704</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O40" t="n">
         <v>2035.089393279798</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853356</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580255</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235159</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.5067842581</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602298</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396411</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.32989935945</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X40" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138368</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3090381835203</v>
+        <v>695.5020655703066</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,43 +7397,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819414</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111862</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075943</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332399</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014788</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7473,43 +7473,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637291</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890279</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444884</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.02845068417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876627</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597558</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474201</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>261.8464821474201</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>114.9565346495099</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>114.9565346495099</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797724</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580255</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235159</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.5067842581</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602298</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396411</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.32989935945</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614325</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179024</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7640,37 +7640,37 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638194282</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111873</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075949</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332399</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014789</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7710,40 +7710,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438234</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998428</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237714</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732781</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>662.1522880254204</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>493.2161050975135</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>343.0994656851778</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851778</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851779</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797724</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832656</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487561</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2125.759767795857</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1836.684541140055</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1582.000052934168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1064.59333199919</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>843.8007528556601</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>73.6605958099982</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
-        <v>30.36925650589473</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,22 +8292,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>45.7648823102457</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,13 +8535,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621886</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>60.50016306149604</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.50016306149536</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>46.89962506856676</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>378.7585491187055</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806771</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>112.7536005244185</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>11.9298618339497</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034019</v>
+        <v>89.71507747034035</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.0082414914631</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729315</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613728917</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.06136363537756</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -23671,7 +23671,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>45.27425662969579</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>24.63391537253487</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844823076</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>125.5054897610402</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986219</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
-        <v>43.72409101823348</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459288</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856862</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823358</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,10 +25318,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844822907</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25442,7 +25442,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.558817075419938e-11</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823538</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012194</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>218.5536561769613</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>44.7370056418725</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>119.366239960701</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012115</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>146.8157004125022</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>999699.7644185731</v>
+        <v>999699.7644185732</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>999699.7644185731</v>
+        <v>999699.7644185732</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>891786.6143717956</v>
+        <v>891786.614371794</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>970535.0535457855</v>
+        <v>970535.0535457849</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>975895.2472081555</v>
+        <v>975895.2472081553</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>975895.2472081553</v>
+        <v>975895.2472081552</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>975895.2472081553</v>
+        <v>975895.2472081552</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>975895.2472081537</v>
+        <v>975895.2472081552</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>975895.2472081552</v>
+        <v>975895.2472081553</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>975895.2472081552</v>
+        <v>975895.2472081553</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.839779505</v>
+        <v>405380.8397795042</v>
       </c>
       <c r="F2" t="n">
         <v>441473.874400917</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="H2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="I2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="J2" t="n">
-        <v>443930.6298295033</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="K2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="L2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="M2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="N2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="O2" t="n">
         <v>443930.6298295035</v>
       </c>
-      <c r="M2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="N2" t="n">
-        <v>443930.6298295027</v>
-      </c>
-      <c r="O2" t="n">
-        <v>443930.6298295034</v>
-      </c>
       <c r="P2" t="n">
-        <v>443930.6298295029</v>
+        <v>443930.6298295033</v>
       </c>
     </row>
     <row r="3">
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357108</v>
+        <v>325187.1190357073</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.347105134</v>
+        <v>166521.3471051368</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456937</v>
+        <v>84929.59434456841</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848494</v>
+        <v>43782.40655848873</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977225568</v>
+        <v>3023.297977224857</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,31 +26418,31 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8018.191469425934</v>
+        <v>8018.191469425932</v>
       </c>
       <c r="F4" t="n">
-        <v>8110.779805506622</v>
+        <v>8110.779805506623</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
+        <v>8117.31242673198</v>
+      </c>
+      <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="I4" t="n">
-        <v>8117.312426731975</v>
-      </c>
       <c r="J4" t="n">
-        <v>8117.312426731976</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731986</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
@@ -26451,13 +26451,13 @@
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731983</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214746</v>
+        <v>86093.72216214717</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26503,7 +26503,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239068</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-890434.5828522721</v>
       </c>
       <c r="C6" t="n">
+        <v>224317.2007236476</v>
+      </c>
+      <c r="D6" t="n">
         <v>224317.2007236473</v>
       </c>
-      <c r="D6" t="n">
-        <v>224317.2007236475</v>
-      </c>
       <c r="E6" t="n">
-        <v>-13918.19288777922</v>
+        <v>-14128.15713162098</v>
       </c>
       <c r="F6" t="n">
-        <v>166699.6189764379</v>
+        <v>166653.7139808696</v>
       </c>
       <c r="G6" t="n">
-        <v>323523.5513432856</v>
+        <v>323488.8134178494</v>
       </c>
       <c r="H6" t="n">
-        <v>334690.7875788643</v>
+        <v>334656.0496534283</v>
       </c>
       <c r="I6" t="n">
-        <v>334690.7875788641</v>
+        <v>334656.0496534288</v>
       </c>
       <c r="J6" t="n">
-        <v>167085.6097688817</v>
+        <v>167050.8718434462</v>
       </c>
       <c r="K6" t="n">
-        <v>334690.7875788645</v>
+        <v>334656.0496534286</v>
       </c>
       <c r="L6" t="n">
-        <v>334690.7875788644</v>
+        <v>334656.0496534285</v>
       </c>
       <c r="M6" t="n">
-        <v>249761.193234295</v>
+        <v>249726.4553088602</v>
       </c>
       <c r="N6" t="n">
-        <v>290908.381020379</v>
+        <v>290873.6430949398</v>
       </c>
       <c r="O6" t="n">
-        <v>331667.4896016388</v>
+        <v>331632.7516762039</v>
       </c>
       <c r="P6" t="n">
-        <v>334690.7875788638</v>
+        <v>334656.0496534285</v>
       </c>
     </row>
   </sheetData>
@@ -26738,16 +26738,16 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.17026749456</v>
+        <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26771,13 +26771,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
     </row>
     <row r="4">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086524</v>
+        <v>981.3883278086487</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26823,13 +26823,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099645</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26966,19 +26966,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770204</v>
+        <v>278.1053753770175</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218263</v>
+        <v>145.8707812218288</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.41189315740063e-12</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086137</v>
+        <v>340.8034957086098</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173545</v>
+        <v>178.7569625173574</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086137</v>
+        <v>340.8034957086098</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173506</v>
+        <v>178.7569625173571</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364552</v>
+        <v>12.56299777364256</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086137</v>
+        <v>340.8034957086098</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173545</v>
+        <v>178.7569625173574</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>346.7581842775609</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>328.4904192026577</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>31.65432874128362</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,10 +27552,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>115.532694280238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>143.8306717025945</v>
+        <v>188.1554948249515</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>173.2750277963212</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>55.73584717546893</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.5011221358737</v>
+        <v>268.227883479569</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>48.82175210618212</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28059,13 +28059,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>209.3291364797365</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-1.112426135792493e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29196,7 +29196,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>5.972651706542819e-12</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.28537247091299e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29451,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-7.965435133550913e-13</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>8.39797243471234e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29940,7 +29940,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-5.022225013485424e-13</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.177204958895979e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-1.621291424173945e-12</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485663</v>
+        <v>4.873046301485651</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543509006</v>
+        <v>49.90608543508993</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380262</v>
+        <v>187.8681175380257</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307191</v>
+        <v>413.5937135307182</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726074</v>
+        <v>619.8697634726059</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216994</v>
+        <v>769.0032542216975</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857451</v>
+        <v>855.6642913857429</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898412</v>
+        <v>869.5098341898391</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294431</v>
+        <v>821.0534800294411</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615157</v>
+        <v>700.750149461514</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895602</v>
+        <v>526.234178789559</v>
       </c>
       <c r="R11" t="n">
-        <v>306.106494735699</v>
+        <v>306.1064947356983</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951047</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.3317601847535</v>
+        <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188529</v>
+        <v>0.389843704118852</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.60730963196943</v>
+        <v>2.607309631969424</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191529</v>
+        <v>25.18112197191523</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596503</v>
+        <v>89.76921320596482</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783048</v>
+        <v>246.3335823783042</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202566</v>
+        <v>421.0233277202556</v>
       </c>
       <c r="L12" t="n">
-        <v>141.5392044735392</v>
+        <v>566.1178216256418</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845349</v>
+        <v>583.7591506492912</v>
       </c>
       <c r="N12" t="n">
-        <v>678.117780114716</v>
+        <v>678.1177801147143</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431828</v>
+        <v>620.3452877431812</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205485</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071855</v>
+        <v>332.8207874071847</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697601</v>
+        <v>48.42963285697589</v>
       </c>
       <c r="T12" t="n">
-        <v>10.5092875078066</v>
+        <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190415</v>
+        <v>0.1715335284190411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236091</v>
+        <v>2.185880810236085</v>
       </c>
       <c r="H13" t="n">
-        <v>19.4344675673718</v>
+        <v>19.43446756737175</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691809</v>
+        <v>65.73539745691794</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836916</v>
+        <v>154.5417732836912</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619749</v>
+        <v>253.9596068619742</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509185</v>
+        <v>324.9808615509177</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263719</v>
+        <v>342.646752826371</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973104</v>
+        <v>334.4993788973096</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050068</v>
+        <v>308.9643167050061</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761904</v>
+        <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916785</v>
+        <v>183.037710391678</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570639</v>
+        <v>98.28514988570615</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929623</v>
+        <v>38.09394102929613</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826931</v>
+        <v>9.339672552826908</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765142</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>139.4267020936831</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
-        <v>615.6579511813127</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500296</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,25 +33497,25 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33734,22 +33734,22 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O36" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071767</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437227</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214685</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485282</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.410447117917</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473057</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862103</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.896465370497</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067402</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622724</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071767</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437227</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214685</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485282</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418556</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>371.3409564478483</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
@@ -34790,13 +34790,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>280.048785629427</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977091</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>381.1895643063687</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>451.6972626543699</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35270,7 +35270,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.9808853923499</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040328</v>
+        <v>232.5478090040319</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276268</v>
+        <v>399.7799124276253</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517121</v>
+        <v>533.2368392517103</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584724</v>
+        <v>625.3180581584702</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932503</v>
+        <v>640.0967705932483</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077564</v>
+        <v>590.9552686077543</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062461</v>
+        <v>469.5171537062444</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151107</v>
+        <v>303.9284889151095</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156689</v>
+        <v>90.52095692156615</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116381</v>
+        <v>119.4959557116375</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458977</v>
+        <v>283.1818887458966</v>
       </c>
       <c r="L12" t="n">
-        <v>2.984824693665031</v>
+        <v>427.5634418457676</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625166</v>
+        <v>441.6251167272729</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313827</v>
+        <v>546.776068031381</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987383</v>
+        <v>477.7490432987368</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062182</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.839013321164</v>
+        <v>192.8390133211632</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936576</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701884</v>
+        <v>61.18259316701847</v>
       </c>
       <c r="K13" t="n">
-        <v>231.690115036092</v>
+        <v>231.6901150360914</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112347</v>
+        <v>352.5708868112339</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882125</v>
+        <v>382.2306297882116</v>
       </c>
       <c r="N13" t="n">
-        <v>378.631551276539</v>
+        <v>378.6315512765382</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190465</v>
+        <v>333.5494446190457</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410839</v>
+        <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998409</v>
+        <v>96.87566713998366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>12.5890754270164</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>484.3162390979793</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899046</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060454</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O36" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238434</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992783</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071383</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625067</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315395306</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191275</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674315</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764192</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561668</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236334274</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396409</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.133804440254</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238434</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992783</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071383</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625067</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789168</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
